--- a/english.xlsx
+++ b/english.xlsx
@@ -13,6 +13,31 @@
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -56,9 +81,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -354,14 +382,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
